--- a/latin_america_full_paper_review.xlsx
+++ b/latin_america_full_paper_review.xlsx
@@ -6394,7 +6394,7 @@
     <t>9 USA</t>
   </si>
   <si>
-    <t>Mexican dataset. It's available at the discretion (open? credentialed?) of MAILOR</t>
+    <t>Mexican dataset. It's available at the discretion of MAILOR</t>
   </si>
   <si>
     <t>Objectives: To evaluate the performance of an artificial intelligence (AI) system (Pegasus, Visulytix Ltd., UK*) at the detection of diabetic retinopathy (DR) from images captured by a handheld portable fundus camera.
@@ -11113,8 +11113,8 @@
       <c r="U64" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V64" s="3" t="s">
-        <v>104</v>
+      <c r="V64" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="W64" s="5" t="s">
         <v>742</v>
@@ -18640,7 +18640,7 @@
         <v>538.0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>1973</v>
@@ -18676,7 +18676,7 @@
         <v>609</v>
       </c>
       <c r="U187" s="19" t="s">
-        <v>39</v>
+        <v>1013</v>
       </c>
       <c r="V187" s="1" t="s">
         <v>23</v>
